--- a/Documentos/Documentos Excel - Hojas de calculo/Diferentes manera de sumar.xlsx
+++ b/Documentos/Documentos Excel - Hojas de calculo/Diferentes manera de sumar.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\La pagina web de Hernan\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\La pagina web de Hernan\Documentos\Documentos Excel - Hojas de calculo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B8FC57-639C-4238-BAAC-728FAE7730AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1376D4AF-32F1-46E8-B8D1-6F7AFA1595EE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="1°Escenario" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="3°Escenario" sheetId="3" r:id="rId3"/>
     <sheet name="SUMAR.SI.CONJUNTO" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,18 +46,6 @@
     <t>Sumar todas las celdas</t>
   </si>
   <si>
-    <t>Celdas que contengan el 12</t>
-  </si>
-  <si>
-    <t>Celdas que sean mayores a 12</t>
-  </si>
-  <si>
-    <t>Celdas que sean menores a 18</t>
-  </si>
-  <si>
-    <t>Celdas que sean distintas a 12</t>
-  </si>
-  <si>
     <t>Completar</t>
   </si>
   <si>
@@ -153,12 +140,24 @@
   </si>
   <si>
     <t>Total de ventas por transferencia minoristascorrespondientes a San Miguel</t>
+  </si>
+  <si>
+    <t>Sumar celdas que contengan el 12</t>
+  </si>
+  <si>
+    <t>Sumar celdas que sean mayores a 12</t>
+  </si>
+  <si>
+    <t>Sumar celdas que sean menores a 18</t>
+  </si>
+  <si>
+    <t>Sumar celdas que sean distintas a 12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -224,7 +223,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -232,6 +231,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -274,7 +276,7 @@
         <xdr:cNvPr id="2" name="Rectángulo 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC8B0FD5-0263-4591-AB6F-D90011339717}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CC8B0FD5-0263-4591-AB6F-D90011339717}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -321,6 +323,10 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0"/>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="es-AR" sz="1100" baseline="0"/>
           </a:br>
@@ -331,6 +337,10 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0"/>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="es-AR" sz="1100" baseline="0"/>
           </a:br>
@@ -341,6 +351,10 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0"/>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="es-AR" sz="1100" baseline="0"/>
           </a:br>
@@ -375,7 +389,7 @@
         <xdr:cNvPr id="3" name="Cerrar llave 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42223D8C-0560-462D-9251-224C3E5352AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{42223D8C-0560-462D-9251-224C3E5352AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -438,7 +452,7 @@
         <xdr:cNvPr id="2" name="Rectángulo 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7CC9664-D8E7-41BD-A2AA-0FC07693278D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7CC9664-D8E7-41BD-A2AA-0FC07693278D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -485,6 +499,10 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0"/>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="es-AR" sz="1100" baseline="0"/>
           </a:br>
@@ -495,6 +513,10 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0"/>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="es-AR" sz="1100" baseline="0"/>
           </a:br>
@@ -505,6 +527,10 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0"/>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="es-AR" sz="1100" baseline="0"/>
           </a:br>
@@ -544,7 +570,7 @@
         <xdr:cNvPr id="3" name="Cerrar llave 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1883FE5D-DBBB-4518-BFC6-D81FBAE15841}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1883FE5D-DBBB-4518-BFC6-D81FBAE15841}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -602,7 +628,7 @@
         <xdr:cNvPr id="4" name="CuadroTexto 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8B3A571-0154-48F2-B086-FD21D44DC864}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C8B3A571-0154-48F2-B086-FD21D44DC864}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -677,7 +703,7 @@
         <xdr:cNvPr id="2" name="Rectángulo 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6CDEE42-ADA2-41A0-B950-44DB354A1ADE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C6CDEE42-ADA2-41A0-B950-44DB354A1ADE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -732,6 +758,10 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0"/>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="es-AR" sz="1100" baseline="0"/>
           </a:br>
@@ -742,6 +772,10 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0"/>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="es-AR" sz="1100" baseline="0"/>
           </a:br>
@@ -752,6 +786,10 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0"/>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="es-AR" sz="1100" baseline="0"/>
           </a:br>
@@ -791,7 +829,7 @@
         <xdr:cNvPr id="3" name="Cerrar llave 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{783C689D-C6C7-4CDF-8F13-396896A41A99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{783C689D-C6C7-4CDF-8F13-396896A41A99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -854,7 +892,7 @@
         <xdr:cNvPr id="2" name="Rectángulo 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64446D83-BC1E-4BBB-BB94-3686CA603FD8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{64446D83-BC1E-4BBB-BB94-3686CA603FD8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -933,6 +971,10 @@
             <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0"/>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="es-AR" sz="1100" baseline="0"/>
           </a:br>
@@ -971,6 +1013,18 @@
             <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="es-AR" sz="1100" baseline="0">
               <a:solidFill>
@@ -1013,6 +1067,18 @@
             <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="es-AR" sz="1100" baseline="0">
               <a:solidFill>
@@ -1055,6 +1121,18 @@
             <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="es-AR" sz="1100" baseline="0">
               <a:solidFill>
@@ -1097,6 +1175,18 @@
             <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="es-AR" sz="1100" baseline="0">
               <a:solidFill>
@@ -1154,6 +1244,18 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
           </a:br>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="es-AR" sz="1100" baseline="0">
               <a:solidFill>
@@ -1195,7 +1297,7 @@
         <xdr:cNvPr id="3" name="Rectángulo 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F85508F-A198-4BFA-9101-7ED70C1EED12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7F85508F-A198-4BFA-9101-7ED70C1EED12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1317,7 +1419,7 @@
         <xdr:cNvPr id="4" name="Cerrar llave 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C780334A-5614-41AE-A36A-C8F7DA796B7E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C780334A-5614-41AE-A36A-C8F7DA796B7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1656,14 +1758,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB56B4C-8D17-4561-90C7-9967F919A256}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1674,11 +1779,11 @@
       <c r="A2" s="1">
         <v>12</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1690,11 +1795,11 @@
       <c r="A4" s="1">
         <v>25</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="C4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1706,11 +1811,11 @@
       <c r="A6" s="1">
         <v>18</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="C6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1722,11 +1827,11 @@
       <c r="A8" s="1">
         <v>14</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="C8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1738,11 +1843,11 @@
       <c r="A10" s="1">
         <v>12</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="C10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1756,8 +1861,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" s="5"/>
       <c r="F14" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1774,7 +1880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8FE6264-5285-44DD-B00B-B36C34B633D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1785,87 +1891,87 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1">
         <v>15000</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1">
         <v>12000</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1">
         <v>8000</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1">
         <v>20000</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1">
         <v>18000</v>
@@ -1873,10 +1979,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1">
         <v>11000</v>
@@ -1884,10 +1990,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1">
         <v>13000</v>
@@ -1895,10 +2001,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1">
         <v>17000</v>
@@ -1906,10 +2012,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1">
         <v>17000</v>
@@ -1917,10 +2023,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C11" s="1">
         <v>13000</v>
@@ -1928,10 +2034,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1">
         <v>14000</v>
@@ -1939,10 +2045,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1">
         <v>22000</v>
@@ -1955,7 +2061,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87285437-5638-47B6-B629-265E1C554422}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1969,27 +2075,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1">
         <v>30000</v>
@@ -1997,13 +2103,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1">
         <v>15500</v>
@@ -2011,13 +2117,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D4" s="1">
         <v>27500</v>
@@ -2025,13 +2131,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1">
         <v>8000</v>
@@ -2039,13 +2145,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1">
         <v>3500</v>
@@ -2053,13 +2159,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1">
         <v>4250</v>
@@ -2067,13 +2173,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1">
         <v>6000</v>
@@ -2081,13 +2187,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1">
         <v>7200</v>
@@ -2095,13 +2201,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1">
         <v>28000</v>
@@ -2109,13 +2215,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D11" s="1">
         <v>42000</v>
@@ -2123,53 +2229,53 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D12" s="1">
         <v>31000</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="A15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+      <c r="A17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
       <c r="D19" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+      <c r="A21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
       <c r="D21" s="3"/>
     </row>
   </sheetData>
@@ -2185,7 +2291,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65F5B14-4215-4C2D-B732-A0F8583B4BFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2199,27 +2305,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1">
         <v>30000</v>
@@ -2227,13 +2333,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1">
         <v>15500</v>
@@ -2241,13 +2347,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D4" s="1">
         <v>27500</v>
@@ -2255,13 +2361,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1">
         <v>8000</v>
@@ -2269,13 +2375,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1">
         <v>3500</v>
@@ -2283,13 +2389,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1">
         <v>4250</v>
@@ -2297,13 +2403,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1">
         <v>6000</v>
@@ -2311,13 +2417,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1">
         <v>7200</v>
@@ -2325,13 +2431,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1">
         <v>28000</v>
@@ -2339,13 +2445,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D11" s="1">
         <v>42000</v>
@@ -2353,13 +2459,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D12" s="1">
         <v>31000</v>
@@ -2367,42 +2473,42 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D13" s="1">
         <v>150000</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="A18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I19" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="A20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
       <c r="G20" s="3"/>
     </row>
   </sheetData>
